--- a/build_site/directory_structure.xlsx
+++ b/build_site/directory_structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Documents\GitHub\openMSE\build_site\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A12898-4CA4-4227-8255-39313A75EB85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF7530C-5D4F-452A-A458-22DE5FD79833}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2385" windowWidth="29040" windowHeight="15840" xr2:uid="{79A89AD8-9884-48FE-A155-092A3037FC4E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="87">
   <si>
     <t>Parent</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Link</t>
   </si>
   <si>
-    <t>Done</t>
-  </si>
-  <si>
     <t>welcome</t>
   </si>
   <si>
@@ -72,18 +69,12 @@
     <t>The R Packages</t>
   </si>
   <si>
-    <t>History of openMSE</t>
-  </si>
-  <si>
     <t>Development Team</t>
   </si>
   <si>
     <t>Acknowledgements</t>
   </si>
   <si>
-    <t>A lightning tour of openMSE</t>
-  </si>
-  <si>
     <t>A Quick Demo</t>
   </si>
   <si>
@@ -108,9 +99,6 @@
     <t>openMSE at Work</t>
   </si>
   <si>
-    <t>See where openMSE in action</t>
-  </si>
-  <si>
     <t>U.S. Fisheries</t>
   </si>
   <si>
@@ -241,6 +229,63 @@
   </si>
   <si>
     <t>far fa-chart-line</t>
+  </si>
+  <si>
+    <t>Keywords</t>
+  </si>
+  <si>
+    <t>Blue Matter</t>
+  </si>
+  <si>
+    <t>openMSE in action</t>
+  </si>
+  <si>
+    <t>Lightning tour of openMSE</t>
+  </si>
+  <si>
+    <t>Information from the spool-up period</t>
+  </si>
+  <si>
+    <t>The MSE results</t>
+  </si>
+  <si>
+    <t>Output from Management Procedures</t>
+  </si>
+  <si>
+    <t>Output from an Assessment</t>
+  </si>
+  <si>
+    <t>The Fishery Data</t>
+  </si>
+  <si>
+    <t>Methods for determining management action</t>
+  </si>
+  <si>
+    <t>MSE Results</t>
+  </si>
+  <si>
+    <t>Plots and tables of MP performance</t>
+  </si>
+  <si>
+    <t>Performance Metrics</t>
+  </si>
+  <si>
+    <t>Calculating MP performance</t>
+  </si>
+  <si>
+    <t>far fa-chart-scatter</t>
+  </si>
+  <si>
+    <t>documentation</t>
+  </si>
+  <si>
+    <t>Custom Parameters</t>
+  </si>
+  <si>
+    <t>Full flexibility in the OM</t>
+  </si>
+  <si>
+    <t>openMSE, MSEtool, SAMtool, DLMtool</t>
   </si>
 </sst>
 </file>
@@ -601,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ED545B8-2574-437C-BA33-A867089C625E}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,7 +660,7 @@
     <col min="4" max="4" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -626,50 +671,50 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -677,258 +722,270 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
+      <c r="H4" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
       <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="G13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
       </c>
       <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="G14" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>29</v>
-      </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
       </c>
       <c r="E19">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
         <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
         <v>36</v>
       </c>
-      <c r="B21" t="s">
-        <v>38</v>
-      </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
         <v>45</v>
       </c>
-      <c r="B23" t="s">
-        <v>48</v>
-      </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -936,148 +993,200 @@
         <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G25" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G26" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
+        <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E28">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G28" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>53</v>
+      </c>
+      <c r="B29" t="s">
+        <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G29" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>54</v>
+      </c>
+      <c r="B30" t="s">
+        <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G30" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>55</v>
+      </c>
+      <c r="B31" t="s">
+        <v>76</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E31">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G31" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>19</v>
+      </c>
+      <c r="B32" t="s">
+        <v>77</v>
       </c>
       <c r="C32" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E32">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>80</v>
+      </c>
+      <c r="B33" t="s">
+        <v>81</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>56</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
       </c>
       <c r="G33" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="G34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
